--- a/exceldata/excel/all/J-节日活动.xlsx
+++ b/exceldata/excel/all/J-节日活动.xlsx
@@ -6258,7 +6258,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F9" sqref="F9"/>
+      <selection pane="bottomRight" activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1" outlineLevelRow="6"/>
@@ -6568,7 +6568,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L19" sqref="L19"/>
+      <selection pane="bottomRight" activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
@@ -6582,7 +6582,7 @@
     <col min="7" max="7" width="35.1607142857143" style="1" customWidth="1"/>
     <col min="8" max="8" width="36.5" style="1" customWidth="1"/>
     <col min="9" max="9" width="36.1607142857143" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.3303571428571" style="1" customWidth="1"/>
+    <col min="10" max="10" width="48.2142857142857" style="1" customWidth="1"/>
     <col min="11" max="11" width="13.6607142857143" style="1" customWidth="1"/>
     <col min="12" max="12" width="15.6607142857143" style="1" customWidth="1"/>
     <col min="13" max="16384" width="9" style="1"/>

--- a/exceldata/excel/all/J-节日活动.xlsx
+++ b/exceldata/excel/all/J-节日活动.xlsx
@@ -6258,18 +6258,18 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D20" sqref="D20"/>
+      <selection pane="bottomRight" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1" outlineLevelRow="6"/>
   <cols>
     <col min="1" max="1" width="18.3303571428571" style="1" customWidth="1"/>
-    <col min="2" max="2" width="6.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.3303571428571" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.3303571428571" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.1607142857143" style="1" customWidth="1"/>
-    <col min="7" max="7" width="39.8303571428571" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.9553571428571" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5535714285714" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.7142857142857" style="1" customWidth="1"/>
+    <col min="5" max="5" width="33.0357142857143" style="1" customWidth="1"/>
+    <col min="6" max="6" width="23.9553571428571" style="1" customWidth="1"/>
+    <col min="7" max="7" width="41.8125" style="1" customWidth="1"/>
     <col min="8" max="9" width="24.1607142857143" style="1" customWidth="1"/>
     <col min="10" max="10" width="17.1607142857143" style="1" customWidth="1"/>
     <col min="11" max="11" width="19.3303571428571" style="1" customWidth="1"/>

--- a/exceldata/excel/all/J-节日活动.xlsx
+++ b/exceldata/excel/all/J-节日活动.xlsx
@@ -197,7 +197,7 @@
     <t>欢庆佳节</t>
   </si>
   <si>
-    <t>2022-08-08 13:00:00</t>
+    <t>2022-08-09 00:00:00</t>
   </si>
   <si>
     <t>3</t>
@@ -6216,7 +6216,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E11" sqref="E11"/>
+      <selection pane="bottomRight" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1" outlineLevelRow="6"/>
